--- a/SCBAA/2019/Region 7.xlsx
+++ b/SCBAA/2019/Region 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF09541-EA9F-499B-8C47-4B46A05E9E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2A1CAE-60C8-4A43-BEB5-F469F05543F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12405" yWindow="1170" windowWidth="13050" windowHeight="12495" firstSheet="6" activeTab="9" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" firstSheet="6" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tagbilaran" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2900,7 +2907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -10052,8 +10059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F45F8-7851-401B-8CD0-4C55E5E3A47E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10296,7 +10303,9 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="64"/>
+      <c r="E22" s="64">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>

--- a/SCBAA/2019/Region 7.xlsx
+++ b/SCBAA/2019/Region 7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2A1CAE-60C8-4A43-BEB5-F469F05543F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABAA8E1-6AF8-4A39-8F7A-AAA718FF82D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" firstSheet="6" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="4" activeTab="9" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tagbilaran" sheetId="1" r:id="rId1"/>
@@ -2907,8 +2907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,7 +3066,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="57">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>335980196.57000005</v>
       </c>
     </row>
@@ -3120,7 +3119,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="57">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>107170963</v>
       </c>
     </row>
@@ -3311,7 +3309,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="57">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1065909955.8900001</v>
       </c>
     </row>
@@ -3410,7 +3407,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="86">
-        <f>53653103.17+24919800.68</f>
         <v>78572903.849999994</v>
       </c>
     </row>
@@ -3889,7 +3885,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="62">
-        <f>SUM(E41:E92)</f>
         <v>1315470151.6199999</v>
       </c>
     </row>
@@ -4064,7 +4059,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -4076,7 +4070,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1315470151.6199999</v>
       </c>
     </row>
@@ -4098,8 +4091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932FFA14-CE60-4047-92CD-13A34D4B69DE}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4256,7 +4249,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>121716282.58999999</v>
       </c>
     </row>
@@ -4310,7 +4302,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>96521058.460000008</v>
       </c>
     </row>
@@ -4501,7 +4492,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>785725540.63</v>
       </c>
     </row>
@@ -4757,7 +4747,6 @@
         <v>10</v>
       </c>
       <c r="E62" s="77">
-        <f>4917439.04+186360</f>
         <v>5103799.04</v>
       </c>
     </row>
@@ -5079,7 +5068,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>613092879.87000012</v>
       </c>
     </row>
@@ -5254,7 +5242,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>136447334.12</v>
       </c>
     </row>
@@ -5266,7 +5253,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>749540213.99000013</v>
       </c>
     </row>
@@ -6477,8 +6463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75B207C-2435-4DB1-A1BB-5CF7E571EC37}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6602,7 +6588,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="73">
-        <f>34192.03+2742904.27+2725920.63-99238.81+9915999.83-141769.56+93891.79</f>
         <v>15271900.179999998</v>
       </c>
     </row>
@@ -6614,7 +6599,6 @@
         <v>24</v>
       </c>
       <c r="E12" s="74">
-        <f>62032531.95+2275327.69+955622.2+675344.07</f>
         <v>65938825.910000004</v>
       </c>
     </row>
@@ -6637,7 +6621,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>81210726.090000004</v>
       </c>
     </row>
@@ -6658,7 +6641,6 @@
         <v>26</v>
       </c>
       <c r="E16" s="74">
-        <f>4775185.69+2067022+5630972.27+60380+722590+39218+244.49</f>
         <v>13295612.450000001</v>
       </c>
     </row>
@@ -6670,7 +6652,6 @@
         <v>27</v>
       </c>
       <c r="E17" s="74">
-        <f>4504960.5+9133050.44+1133887.6+426000+927796.44+971720+543588.55</f>
         <v>17641003.529999997</v>
       </c>
     </row>
@@ -6693,7 +6674,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>33915441.709999993</v>
       </c>
     </row>
@@ -6873,7 +6853,6 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="74">
-        <f>211737865.08</f>
         <v>211737865.08000001</v>
       </c>
     </row>
@@ -6885,7 +6864,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>847849843.18999994</v>
       </c>
     </row>
@@ -6953,7 +6931,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="74">
-        <f>4760003.46-1997888.56</f>
         <v>2762114.9</v>
       </c>
     </row>
@@ -6985,7 +6962,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="74">
-        <f>12208364.64+4449550.53</f>
         <v>16657915.170000002</v>
       </c>
     </row>
@@ -7165,7 +7141,6 @@
         <v>12</v>
       </c>
       <c r="E64" s="74">
-        <f>90865-50865</f>
         <v>40000</v>
       </c>
     </row>
@@ -7197,7 +7172,6 @@
         <v>11</v>
       </c>
       <c r="E67" s="74">
-        <f>4464043.35-446883.75-266640.65</f>
         <v>3750518.9499999997</v>
       </c>
     </row>
@@ -7209,7 +7183,6 @@
         <v>12</v>
       </c>
       <c r="E68" s="74">
-        <f>71591970.96-26664641.63-44256689.33</f>
         <v>670640</v>
       </c>
     </row>
@@ -7354,7 +7327,6 @@
         <v>50</v>
       </c>
       <c r="E82" s="74">
-        <f>44256689.33+1997888.56</f>
         <v>46254577.890000001</v>
       </c>
     </row>
@@ -7459,7 +7431,6 @@
         <v>50</v>
       </c>
       <c r="E92" s="74">
-        <f>25616837.39-14236039.36</f>
         <v>11380798.030000001</v>
       </c>
     </row>
@@ -7469,7 +7440,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>425590408.52999997</v>
       </c>
     </row>
@@ -7644,7 +7614,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>290905098.79000002</v>
       </c>
     </row>
@@ -7656,7 +7625,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>716495507.31999993</v>
       </c>
     </row>
@@ -7678,8 +7646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBBFCB5-EF77-4E40-A1C7-2ACD7D1864D9}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7837,7 +7805,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>34225620.649999999</v>
       </c>
     </row>
@@ -7880,7 +7847,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="70">
-        <f>6379029+709840.87</f>
         <v>7088869.8700000001</v>
       </c>
     </row>
@@ -7892,7 +7858,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>50319700.75</v>
       </c>
     </row>
@@ -8083,7 +8048,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>577904107.81999993</v>
       </c>
     </row>
@@ -8140,7 +8104,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="70">
-        <f>123607853.57+80126026.36+200000</f>
         <v>203933879.93000001</v>
       </c>
     </row>
@@ -8661,7 +8624,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>481329459.69999999</v>
       </c>
     </row>
@@ -8836,7 +8798,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>123243523.24000001</v>
       </c>
     </row>
@@ -8848,7 +8809,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>604572982.94000006</v>
       </c>
     </row>
@@ -10059,7 +10019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F45F8-7851-401B-8CD0-4C55E5E3A47E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
@@ -12439,8 +12399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF4FB0C-1A1B-4B39-B14E-B941CC55E419}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12565,7 +12525,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="67">
-        <f>105272212.11+75721017.14</f>
         <v>180993229.25</v>
       </c>
     </row>
@@ -12599,7 +12558,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="57">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>449666508.63</v>
       </c>
     </row>
@@ -12653,7 +12611,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="57">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>71878484.519999996</v>
       </c>
     </row>
@@ -12844,7 +12801,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="57">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1315934912.74</v>
       </c>
     </row>
@@ -12890,7 +12846,6 @@
         <v>10</v>
       </c>
       <c r="E42" s="67">
-        <f>107016047.32-3676690.41</f>
         <v>103339356.91</v>
       </c>
     </row>
@@ -12902,7 +12857,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="67">
-        <f>87544164.29-9294059.76</f>
         <v>78250104.530000001</v>
       </c>
     </row>
@@ -12934,7 +12888,6 @@
         <v>10</v>
       </c>
       <c r="E46" s="67">
-        <f>1006000+16905300</f>
         <v>17911300</v>
       </c>
     </row>
@@ -12946,7 +12899,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="67">
-        <f>16598006.24+2906510.7</f>
         <v>19504516.940000001</v>
       </c>
     </row>
@@ -13425,7 +13377,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="62">
-        <f>SUM(E41:E92)</f>
         <v>938799124.52999997</v>
       </c>
     </row>
@@ -13600,7 +13551,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>180084386.06</v>
       </c>
     </row>
@@ -13612,7 +13562,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1118883510.5899999</v>
       </c>
     </row>
